--- a/medicine/Sexualité et sexologie/En_2000,_il_conviendra_de_bien_faire_l'amour/En_2000,_il_conviendra_de_bien_faire_l'amour.xlsx
+++ b/medicine/Sexualité et sexologie/En_2000,_il_conviendra_de_bien_faire_l'amour/En_2000,_il_conviendra_de_bien_faire_l'amour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>En_2000,_il_conviendra_de_bien_faire_l%27amour</t>
+          <t>En_2000,_il_conviendra_de_bien_faire_l'amour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2000, il conviendra de bien faire l'amour (Conviene far bene l'amore) est un film italien réalisé par Pasquale Festa Campanile, sorti en 1975.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>En_2000,_il_conviendra_de_bien_faire_l%27amour</t>
+          <t>En_2000,_il_conviendra_de_bien_faire_l'amour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une Italie du futur où il y a une pénurie de pétrole et une crise de l'énergie grave, quelqu'un découvre le moyen de récupérer l'énergie dégagée lors de rapports sexuels en énergie pour la consommation.  On demande donc au Vatican de modifier quelques règles morales pour favoriser  ce nouveau mode énergétique. Les rapports de tendresse sont devenus immoraux et le coït (même avec des étrangers) est la seule chose qui n'est pas mal vue.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>En_2000,_il_conviendra_de_bien_faire_l%27amour</t>
+          <t>En_2000,_il_conviendra_de_bien_faire_l'amour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Conviene far bene l'amore
 Titre français : En 2000, il conviendra de bien faire l'amour
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>En_2000,_il_conviendra_de_bien_faire_l%27amour</t>
+          <t>En_2000,_il_conviendra_de_bien_faire_l'amour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gigi Proietti : Prof. Enrico Coppola
 Agostina Belli : Francesca De Renzi
